--- a/documents/naacls.xlsx
+++ b/documents/naacls.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMuslu\Desktop\MLS PROGRAMS\CODES\NAACMLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMuslu\Desktop\MLS PROGRAMS\CODES\NAACMLS\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491D95E5-9ED6-49E4-A40F-65095ADB5936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC437F4B-7872-46DF-A665-26059A9D38EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MLS" sheetId="1" r:id="rId1"/>
+    <sheet name="LINKS" sheetId="3" r:id="rId2"/>
+    <sheet name="MLT" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="66">
   <si>
     <t>institution_name</t>
   </si>
@@ -36,9 +38,6 @@
     <t>accreditation_status</t>
   </si>
   <si>
-    <t>accreditation_date</t>
-  </si>
-  <si>
     <t xml:space="preserve">  state</t>
   </si>
   <si>
@@ -63,30 +62,12 @@
     <t>program_length</t>
   </si>
   <si>
-    <t>degree_awarded</t>
-  </si>
-  <si>
     <t>total_credits</t>
   </si>
   <si>
     <t>clinical_hours</t>
   </si>
   <si>
-    <t>certification_pass_rate</t>
-  </si>
-  <si>
-    <t>graduation_rate</t>
-  </si>
-  <si>
-    <t>retention_rate</t>
-  </si>
-  <si>
-    <t>employment_rate</t>
-  </si>
-  <si>
-    <t>current_enrollment</t>
-  </si>
-  <si>
     <t>required_courses</t>
   </si>
   <si>
@@ -105,9 +86,6 @@
     <t>BLS_Ave_Salary_by_State</t>
   </si>
   <si>
-    <t>https://www.bls.gov/oes/current/oes292010.htm#st</t>
-  </si>
-  <si>
     <t>BLS_Employement_by_State</t>
   </si>
   <si>
@@ -126,20 +104,137 @@
     <t>Has_Technology_courses</t>
   </si>
   <si>
-    <t>yes/no</t>
-  </si>
-  <si>
     <t>Mental_Health_welness_Courses_Offered</t>
   </si>
   <si>
-    <t>nutruation,stress, health etc</t>
+    <t>Akron Cooperative Medical Laboratory Science Program</t>
+  </si>
+  <si>
+    <t>MLS</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>Akron</t>
+  </si>
+  <si>
+    <t>https://www.akronchildrens.org/pages/Akron-Cooperative-Medical-Laboratory-Science-Program.html</t>
+  </si>
+  <si>
+    <t>On-campus</t>
+  </si>
+  <si>
+    <t>Special Topics - Examples include Histology, Cytogenetics, Virology, Molecular Diagnostics and Electron Microscopy.</t>
+  </si>
+  <si>
+    <t>graduation_rate_2022</t>
+  </si>
+  <si>
+    <t>graduation_rate_2023</t>
+  </si>
+  <si>
+    <t>graduation_rate_2024</t>
+  </si>
+  <si>
+    <t>certification_pass_rate_2022</t>
+  </si>
+  <si>
+    <t>certification_pass_rate_2023</t>
+  </si>
+  <si>
+    <t>certification_pass_rate_2024</t>
+  </si>
+  <si>
+    <t>employment_rate_2022</t>
+  </si>
+  <si>
+    <t>employment_rate_2023</t>
+  </si>
+  <si>
+    <t>employment_rate_2024</t>
+  </si>
+  <si>
+    <t>retention_rate_2023</t>
+  </si>
+  <si>
+    <t>retention_rate_2024</t>
+  </si>
+  <si>
+    <t>Hospital-based</t>
+  </si>
+  <si>
+    <t>attrition_rate_2022</t>
+  </si>
+  <si>
+    <t>admitted_student_2025</t>
+  </si>
+  <si>
+    <t>Albany College of Pharmacy and Health Sciences</t>
+  </si>
+  <si>
+    <t>12208-3492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albany </t>
+  </si>
+  <si>
+    <t>https://www.acphs.edu/clinical-laboratory-science-major</t>
+  </si>
+  <si>
+    <t>https://www.latlong.net/convert-address-to-lat-long.html</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>attrition_rate_2023</t>
+  </si>
+  <si>
+    <t>attrition_rate_2024</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Molecular Diagnostics</t>
+  </si>
+  <si>
+    <t>1, (3+1 or 4+1)</t>
+  </si>
+  <si>
+    <t>Molecular Diagnostics w/lab , Genetics and Molecular Basis of Disease</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>clinical_pract_hours</t>
+  </si>
+  <si>
+    <t>program_length_year</t>
+  </si>
+  <si>
+    <t>Michelle.Parent@acphs.edu</t>
+  </si>
+  <si>
+    <t>tfrankowski@akronchildrens.org</t>
+  </si>
+  <si>
+    <t>hospital</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +246,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -177,9 +280,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -461,163 +585,573 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AL3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" customWidth="1"/>
-    <col min="14" max="14" width="24.28515625" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" customWidth="1"/>
-    <col min="17" max="17" width="25.5703125" customWidth="1"/>
-    <col min="18" max="18" width="18.140625" customWidth="1"/>
-    <col min="19" max="19" width="18.85546875" customWidth="1"/>
-    <col min="20" max="20" width="20.28515625" customWidth="1"/>
-    <col min="21" max="21" width="18.7109375" customWidth="1"/>
-    <col min="22" max="22" width="19.28515625" customWidth="1"/>
-    <col min="23" max="23" width="18.42578125" customWidth="1"/>
-    <col min="24" max="24" width="24.28515625" customWidth="1"/>
-    <col min="25" max="25" width="25.28515625" customWidth="1"/>
-    <col min="26" max="26" width="21.42578125" customWidth="1"/>
-    <col min="27" max="27" width="22.85546875" customWidth="1"/>
-    <col min="28" max="28" width="39.7109375" customWidth="1"/>
-    <col min="29" max="29" width="32" customWidth="1"/>
-    <col min="30" max="30" width="36" customWidth="1"/>
-    <col min="31" max="31" width="27.28515625" customWidth="1"/>
-    <col min="32" max="32" width="35" customWidth="1"/>
-    <col min="33" max="33" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18" style="2" customWidth="1"/>
+    <col min="5" max="6" width="18.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="33" style="2" customWidth="1"/>
+    <col min="10" max="10" width="31.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="27.5703125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="29.42578125" style="2" customWidth="1"/>
+    <col min="17" max="18" width="29.7109375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="23" style="2" customWidth="1"/>
+    <col min="20" max="20" width="25" style="2" customWidth="1"/>
+    <col min="21" max="21" width="26.5703125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="24" style="2" customWidth="1"/>
+    <col min="23" max="23" width="21.7109375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="24.85546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="29.85546875" style="2" customWidth="1"/>
+    <col min="26" max="26" width="26.140625" style="2" customWidth="1"/>
+    <col min="27" max="27" width="27.28515625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="18.7109375" style="2" customWidth="1"/>
+    <col min="29" max="29" width="24.28515625" style="2" customWidth="1"/>
+    <col min="30" max="30" width="27.140625" style="2" customWidth="1"/>
+    <col min="31" max="31" width="21.42578125" style="2" customWidth="1"/>
+    <col min="32" max="32" width="26.5703125" style="2" customWidth="1"/>
+    <col min="33" max="33" width="39.7109375" style="2" customWidth="1"/>
+    <col min="34" max="34" width="32" style="2" customWidth="1"/>
+    <col min="35" max="35" width="36" style="2" customWidth="1"/>
+    <col min="36" max="36" width="44.5703125" style="2" customWidth="1"/>
+    <col min="37" max="37" width="53.28515625" style="2" customWidth="1"/>
+    <col min="38" max="38" width="28.5703125" style="2" customWidth="1"/>
+    <col min="39" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4">
+        <v>45777</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2">
+        <v>44308</v>
+      </c>
+      <c r="G2" s="2">
+        <v>-81.519328999999999</v>
+      </c>
+      <c r="H2" s="2">
+        <v>41.080547000000003</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="2">
+        <v>32</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1080</v>
+      </c>
+      <c r="O2" s="2">
+        <v>20</v>
+      </c>
+      <c r="P2" s="6">
+        <v>0.61</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>1</v>
+      </c>
+      <c r="R2" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="S2" s="6">
+        <v>1</v>
+      </c>
+      <c r="T2" s="6">
+        <v>0.93</v>
+      </c>
+      <c r="U2" s="6">
+        <v>1</v>
+      </c>
+      <c r="V2" s="6">
+        <v>0</v>
+      </c>
+      <c r="W2" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="X2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>8700</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4">
+        <v>47422</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2">
+        <v>-73.794422999999995</v>
+      </c>
+      <c r="H3" s="2">
+        <v>42.657435</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="2">
+        <v>4</v>
+      </c>
+      <c r="M3" s="2">
+        <v>123</v>
+      </c>
+      <c r="N3" s="2">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AB2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>26</v>
+      <c r="P3" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S3" s="6">
+        <v>1</v>
+      </c>
+      <c r="T3" s="6">
+        <v>1</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="7">
+        <v>40200</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AF2" r:id="rId1" location="st" xr:uid="{842AAE70-B38C-4DFE-8BCF-06389933C85C}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{49E50BC6-7EAD-480F-ABBD-34F0AF7A9B6A}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{45E0F3AE-42C1-4E90-BE4A-9E946BC3E375}"/>
+    <hyperlink ref="J3" r:id="rId3" xr:uid="{AC2678D3-8DD3-45F8-8330-C3E84CF101B4}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{637A9F0A-3D50-487E-B150-C2AF41BEE974}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359353A9-CC3A-4146-A23C-D4DA95D19E52}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="98.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{51F039DF-7F60-4EDB-B41C-79B841A85E5F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE35AFC-FE24-4F5C-9959-C1887F7E31D2}">
+  <dimension ref="A1:AM1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" customWidth="1"/>
+    <col min="15" max="15" width="25.140625" customWidth="1"/>
+    <col min="16" max="16" width="31.5703125" customWidth="1"/>
+    <col min="17" max="17" width="29.140625" customWidth="1"/>
+    <col min="18" max="18" width="31" customWidth="1"/>
+    <col min="19" max="19" width="26.5703125" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" customWidth="1"/>
+    <col min="21" max="21" width="31.7109375" customWidth="1"/>
+    <col min="22" max="22" width="26.140625" customWidth="1"/>
+    <col min="23" max="23" width="22" customWidth="1"/>
+    <col min="24" max="24" width="24.28515625" customWidth="1"/>
+    <col min="25" max="25" width="26.85546875" customWidth="1"/>
+    <col min="26" max="26" width="45.7109375" customWidth="1"/>
+    <col min="27" max="27" width="38.140625" customWidth="1"/>
+    <col min="28" max="28" width="23.140625" customWidth="1"/>
+    <col min="29" max="29" width="28.28515625" customWidth="1"/>
+    <col min="30" max="30" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>